--- a/Plan/황수민_SSAFY_Plan.xlsx
+++ b/Plan/황수민_SSAFY_Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\house\TIL\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A64B880-A591-47DA-A94F-9AEC9C5BBCA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DCF7FE-551D-48D6-A374-AF590CE1AE86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD67CA4C-9B67-4FAD-9364-58D2792804D0}"/>
+    <workbookView xWindow="10752" yWindow="-108" windowWidth="9612" windowHeight="10200" xr2:uid="{DD67CA4C-9B67-4FAD-9364-58D2792804D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>독서(교대로 경제, CS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자바 공부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +188,10 @@
   </si>
   <si>
     <t>인공지능 관련 사업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독서(경제, CS)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +215,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -232,18 +241,221 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,18 +771,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F179282B-C309-40BD-9328-DC0DD3565F3F}">
-  <dimension ref="B4:Q14"/>
+  <dimension ref="B3:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="13" max="13" width="11.69921875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -592,10 +807,13 @@
       <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4"/>
+      <c r="Q4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -625,19 +843,21 @@
         <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="O5" s="7"/>
+      <c r="Q5" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -660,92 +880,108 @@
         <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" t="s">
-        <v>39</v>
+      <c r="O6" s="10"/>
+      <c r="Q6" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="L8" s="1"/>
-      <c r="M8" t="s">
+      <c r="L8" s="11"/>
+      <c r="M8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="M9" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="M10" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="M11" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="M12" t="s">
+      <c r="L12" s="8"/>
+      <c r="M12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="M13" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="M14" t="s">
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L14" s="12"/>
+      <c r="M14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="13" t="s">
         <v>15</v>
       </c>
+      <c r="O14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L4:O4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
